--- a/biology/Zoologie/Belle_et_Sébastien_(série_télévisée_d'animation)/Belle_et_Sébastien_(série_télévisée_d'animation).xlsx
+++ b/biology/Zoologie/Belle_et_Sébastien_(série_télévisée_d'animation)/Belle_et_Sébastien_(série_télévisée_d'animation).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Belle_et_S%C3%A9bastien_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+          <t>Belle_et_Sébastien_(série_télévisée_d'animation)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Belle et Sébastien (名犬ジョリィ, Meiken Jorī?, littéralement Jolie, chien fidèle) est un anime en 52 épisodes de 24 minutes adaptant le roman éponyme de Cécile Aubry. C'est une production japonaise entre les sociétés MK Company, Visual 80 Productions et Toho Company, Ltd., sous la direction de Kenji Hayakawa et adaptée par Mitsuru Kaneko pour NHK. Les personnages sont dessinés par Shuichi Seki. Elle a été diffusée du 7 avril 1981 au 22 juin 1982 sur NHK.
-La série a été doublée au Québec et diffusée à partir du 18 septembre 1982 à la Télévision de Radio-Canada[1], et en France, en 1983 sur FR3. Aujourd’hui, il est possible de la revoir sur internet facilement comme par exemple sur YouTube.
+La série a été doublée au Québec et diffusée à partir du 18 septembre 1982 à la Télévision de Radio-Canada, et en France, en 1983 sur FR3. Aujourd’hui, il est possible de la revoir sur internet facilement comme par exemple sur YouTube.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Belle_et_S%C3%A9bastien_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+          <t>Belle_et_Sébastien_(série_télévisée_d'animation)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sébastien est un jeune garçon qui vit dans les montagnes des Pyrénées en France avec Grand-père César et Angelina. Sébastien est intelligent et fort mais il se sent différent des autres enfants de son village  parce qu'il ne va pas à l'école et qu'il n'a pas de mère. Un jour, il se promène pas loin de chez lui et il rencontre une chienne, un Montagne des Pyrénées qu'il nomma Belle, mais les habitants du village la prennent pour un démon et la pourchassent. Sébastien continue de défendre Belle.   Un jour, Grand-père César dit toute la vérité au sujet de sa mère : il lui révèle que sa mère est en Espagne et qu'elle fait partie d'une troupe de comédiens ambulants appelée « la troupe de Carlos ».  Sébastien décide de traverser la frontière afin de rejoindre l'Espagne pour retrouver sa mère.  Cependant, le voyage ne sera pas de tout repos : Belle et Sébastien vont y vivre plein d'aventures et rencontrer plein de gens.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Belle_et_S%C3%A9bastien_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+          <t>Belle_et_Sébastien_(série_télévisée_d'animation)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Doublage québécois</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Flora Balzano : Sébastien
 Diane Arcand : Angelina (2e voix), narratrice (2e voix)
@@ -562,7 +578,7 @@
 Vincent Davy : Carolus (épisode 32), Gaillaras
 Claudie Verdant : Maruka Varela
 Yves Massicotte : Carolus Estevez (épisodes 43 et 44)
- Source et légende : version québécoise (VQ) sur Doublage.qc.ca[2]
+ Source et légende : version québécoise (VQ) sur Doublage.qc.ca
 </t>
         </is>
       </c>
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Belle_et_S%C3%A9bastien_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+          <t>Belle_et_Sébastien_(série_télévisée_d'animation)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le monstre des Pyrénées (走れ！ ピレネーに向かって, Hashire! Pirēne ni mukatte?)
